--- a/ConfigData/Xlsx/SceneMapIcon.xlsx
+++ b/ConfigData/Xlsx/SceneMapIcon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassic\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>cwxw</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>世界地图窗口x</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -106,9 +102,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Level</t>
   </si>
   <si>
     <t>IconX</t>
@@ -810,11 +803,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G20" totalsRowShown="0">
-  <autoFilter ref="A1:G20"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
-    <tableColumn id="3" name="Level"/>
     <tableColumn id="8" name="IconX"/>
     <tableColumn id="9" name="IconY"/>
     <tableColumn id="10" name="IconWidth"/>
@@ -1112,43 +1104,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,13 +1154,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1190,80 +1176,68 @@
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13000001</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1348</v>
       </c>
       <c r="C4">
-        <v>1348</v>
+        <v>611</v>
       </c>
       <c r="D4">
-        <v>611</v>
+        <v>76</v>
       </c>
       <c r="E4">
-        <v>76</v>
-      </c>
-      <c r="F4">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13000002</v>
       </c>
       <c r="B5">
+        <v>1279</v>
+      </c>
+      <c r="C5">
+        <v>571</v>
+      </c>
+      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1279</v>
-      </c>
-      <c r="D5">
-        <v>571</v>
-      </c>
-      <c r="E5">
-        <v>76</v>
-      </c>
-      <c r="F5">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13000003</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1213</v>
       </c>
       <c r="C6">
-        <v>1213</v>
+        <v>655</v>
       </c>
       <c r="D6">
-        <v>655</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>74</v>
-      </c>
-      <c r="F6">
         <v>67</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13010001</v>
       </c>
@@ -1279,306 +1253,264 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>13010004</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>1148</v>
       </c>
       <c r="C8">
-        <v>1148</v>
+        <v>351</v>
       </c>
       <c r="D8">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="E8">
-        <v>74</v>
-      </c>
-      <c r="F8">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>13010005</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>1386</v>
       </c>
       <c r="C9">
-        <v>1386</v>
+        <v>339</v>
       </c>
       <c r="D9">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="E9">
-        <v>73</v>
-      </c>
-      <c r="F9">
         <v>68</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>13010006</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>1232</v>
       </c>
       <c r="C10">
-        <v>1232</v>
+        <v>506</v>
       </c>
       <c r="D10">
-        <v>506</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>76</v>
-      </c>
-      <c r="F10">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>13010007</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>1431</v>
       </c>
       <c r="C11">
-        <v>1431</v>
+        <v>440</v>
       </c>
       <c r="D11">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="E11">
-        <v>76</v>
-      </c>
-      <c r="F11">
         <v>62</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>13010008</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>1067</v>
       </c>
       <c r="C12">
-        <v>1067</v>
+        <v>445</v>
       </c>
       <c r="D12">
-        <v>445</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>68</v>
-      </c>
-      <c r="F12">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13010009</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>1332</v>
       </c>
       <c r="C13">
-        <v>1332</v>
+        <v>484</v>
       </c>
       <c r="D13">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="E13">
-        <v>76</v>
-      </c>
-      <c r="F13">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13010010</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>1441</v>
       </c>
       <c r="C14">
-        <v>1441</v>
+        <v>527</v>
       </c>
       <c r="D14">
-        <v>527</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>75</v>
-      </c>
-      <c r="F14">
         <v>69</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13010011</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>1574</v>
       </c>
       <c r="C15">
-        <v>1574</v>
+        <v>373</v>
       </c>
       <c r="D15">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13010012</v>
       </c>
       <c r="B16">
+        <v>1251</v>
+      </c>
+      <c r="C16">
+        <v>432</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>1251</v>
-      </c>
-      <c r="D16">
-        <v>432</v>
-      </c>
-      <c r="E16">
-        <v>68</v>
-      </c>
-      <c r="F16">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13010013</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>1250</v>
       </c>
       <c r="C17">
-        <v>1250</v>
+        <v>338</v>
       </c>
       <c r="D17">
-        <v>338</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>69</v>
-      </c>
-      <c r="F17">
         <v>66</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>13010014</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>1550</v>
       </c>
       <c r="C18">
-        <v>1550</v>
+        <v>505</v>
       </c>
       <c r="D18">
-        <v>505</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>72</v>
-      </c>
-      <c r="F18">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>13010015</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>1040</v>
       </c>
       <c r="C19">
-        <v>1040</v>
+        <v>538</v>
       </c>
       <c r="D19">
-        <v>538</v>
+        <v>68</v>
       </c>
       <c r="E19">
-        <v>68</v>
-      </c>
-      <c r="F19">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>13010016</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>919</v>
       </c>
       <c r="C20">
-        <v>919</v>
+        <v>534</v>
       </c>
       <c r="D20">
-        <v>534</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>75</v>
-      </c>
-      <c r="F20">
         <v>69</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/SceneMapIcon.xlsx
+++ b/ConfigData/Xlsx/SceneMapIcon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>cwxw</t>
   </si>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>Icon</t>
+  </si>
+  <si>
+    <t>lcxj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ygld</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -803,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="8" name="IconX"/>
@@ -1104,14 +1112,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
@@ -1514,6 +1523,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>13010017</v>
+      </c>
+      <c r="B21">
+        <v>1149</v>
+      </c>
+      <c r="C21">
+        <v>584</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>13010018</v>
+      </c>
+      <c r="B22">
+        <v>840</v>
+      </c>
+      <c r="C22">
+        <v>444</v>
+      </c>
+      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
